--- a/Win32/Binaries/Table/servantlvupmaterial.xlsx
+++ b/Win32/Binaries/Table/servantlvupmaterial.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,23 +62,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>image/food_icon/fantuan.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/food_icon/kaoyu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/food_icon/shousi.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/food_icon/yu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/food_icon/longxia.png</t>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫脸饭团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓香烤鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炖鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧龙虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有猫脸的可爱饭团，雪白的米看起来很有食欲却又不忍心吃掉它。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘香四溢的烤鱼，在烤之前腌制一下味道会更好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自一个东方国家的美食，吃到嘴里会有多种味道混合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由猫土大陆名厨精心炖制的鱼，对任何猫来说都没有抵抗力的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可多享的猫间美味，吃一次会幸福很久。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具描述（tips用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#servantFood_2.png</t>
+  </si>
+  <si>
+    <t>#servantFood_3.png</t>
+  </si>
+  <si>
+    <t>#servantFood_4.png</t>
+  </si>
+  <si>
+    <t>#servantFood_5.png</t>
+  </si>
+  <si>
+    <t>#servantFood_1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -444,9 +500,10 @@
   <cols>
     <col min="3" max="3" width="51.625" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +516,14 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -473,8 +536,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,13 +551,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -496,13 +571,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -510,13 +591,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -524,13 +611,19 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -538,45 +631,51 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>50000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
@@ -853,10 +952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -866,7 +965,7 @@
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -879,8 +978,14 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -893,8 +998,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -905,7 +1016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -916,7 +1027,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -927,7 +1038,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -938,7 +1049,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -949,39 +1060,39 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
